--- a/first_regression.xlsx
+++ b/first_regression.xlsx
@@ -653,9 +653,6 @@
     <t>Abr19</t>
   </si>
   <si>
-    <t>change_rate</t>
-  </si>
-  <si>
     <t>GRADM</t>
   </si>
   <si>
@@ -708,6 +705,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>DTARG</t>
   </si>
 </sst>
 </file>
@@ -1028,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N189" workbookViewId="0">
-      <selection activeCell="T211" sqref="T211"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,61 +1039,61 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" t="s">
         <v>209</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M1" t="s">
+        <v>218</v>
+      </c>
+      <c r="N1" t="s">
+        <v>219</v>
+      </c>
+      <c r="O1" t="s">
+        <v>220</v>
+      </c>
+      <c r="P1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>222</v>
+      </c>
+      <c r="R1" t="s">
+        <v>223</v>
+      </c>
+      <c r="S1" t="s">
+        <v>224</v>
+      </c>
+      <c r="T1" t="s">
         <v>226</v>
-      </c>
-      <c r="D1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H1" t="s">
-        <v>214</v>
-      </c>
-      <c r="I1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J1" t="s">
-        <v>216</v>
-      </c>
-      <c r="K1" t="s">
-        <v>217</v>
-      </c>
-      <c r="L1" t="s">
-        <v>218</v>
-      </c>
-      <c r="M1" t="s">
-        <v>219</v>
-      </c>
-      <c r="N1" t="s">
-        <v>220</v>
-      </c>
-      <c r="O1" t="s">
-        <v>221</v>
-      </c>
-      <c r="P1" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>223</v>
-      </c>
-      <c r="R1" t="s">
-        <v>224</v>
-      </c>
-      <c r="S1" t="s">
-        <v>225</v>
-      </c>
-      <c r="T1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
